--- a/ron_data.xlsx
+++ b/ron_data.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25460" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Category Sort" sheetId="1" r:id="rId1"/>
     <sheet name="Location Sort" sheetId="2" r:id="rId2"/>
+    <sheet name="Updated 1.24.14" sheetId="3" r:id="rId3"/>
+    <sheet name="sums" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="114">
   <si>
     <t>Category</t>
   </si>
@@ -296,6 +298,72 @@
   </si>
   <si>
     <t>Main Quad</t>
+  </si>
+  <si>
+    <t>Park Row and Green Street</t>
+  </si>
+  <si>
+    <t>Quad</t>
+  </si>
+  <si>
+    <t>Museum of Art</t>
+  </si>
+  <si>
+    <t>Morrell Lounge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women's Resource Center, College St. </t>
+  </si>
+  <si>
+    <t>Druckenmiller Hall</t>
+  </si>
+  <si>
+    <t>Edwards Center for Art and Dance</t>
+  </si>
+  <si>
+    <t>Spring Street</t>
+  </si>
+  <si>
+    <t>Gustafson House</t>
+  </si>
+  <si>
+    <t>Coffin Street</t>
+  </si>
+  <si>
+    <t>School Street</t>
+  </si>
+  <si>
+    <t>Smith Union</t>
+  </si>
+  <si>
+    <t>Counseling Center</t>
+  </si>
+  <si>
+    <t>84 Federal Street</t>
+  </si>
+  <si>
+    <t>Cleaveland Hall</t>
+  </si>
+  <si>
+    <t>83 1/2 Harpswell Road</t>
+  </si>
+  <si>
+    <t>Hard Alcohol Policy Violation</t>
+  </si>
+  <si>
+    <t>Wall Damge/Vandalism</t>
+  </si>
+  <si>
+    <t>Online Sum</t>
+  </si>
+  <si>
+    <t>Real Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Sarah Orne Jewett Hall</t>
   </si>
 </sst>
 </file>
@@ -352,8 +420,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -363,15 +437,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -697,20 +782,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection sqref="A1:C135"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,167 +805,168 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -888,10 +974,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -899,10 +985,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -910,10 +996,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -921,21 +1007,21 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -943,10 +1029,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -954,10 +1040,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -965,21 +1051,21 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -987,10 +1073,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -998,10 +1084,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1009,21 +1095,21 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1031,10 +1117,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1042,10 +1128,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1053,21 +1139,21 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1075,21 +1161,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1097,10 +1183,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1108,54 +1194,54 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1163,21 +1249,21 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1185,10 +1271,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1196,32 +1282,32 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1229,21 +1315,21 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1251,10 +1337,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1262,10 +1348,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1273,43 +1359,43 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1317,32 +1403,32 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1350,21 +1436,21 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1372,32 +1458,32 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1405,21 +1491,21 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1427,65 +1513,65 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1493,10 +1579,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1504,32 +1590,32 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1537,10 +1623,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1548,10 +1634,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1559,21 +1645,21 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1581,21 +1667,21 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1603,10 +1689,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1614,21 +1700,21 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1636,21 +1722,21 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1658,10 +1744,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1669,10 +1755,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1680,21 +1766,21 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -1702,21 +1788,21 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1724,10 +1810,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1735,10 +1821,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1746,21 +1832,21 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1768,10 +1854,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -1779,10 +1865,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1790,10 +1876,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1801,32 +1887,32 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1834,21 +1920,21 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1856,54 +1942,54 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -1911,10 +1997,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -1922,21 +2008,21 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1944,10 +2030,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -1955,21 +2041,21 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -1977,43 +2063,43 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -2021,10 +2107,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -2032,54 +2118,54 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -2087,21 +2173,21 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2109,32 +2195,32 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -2142,10 +2228,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -2153,21 +2239,21 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -2175,29 +2261,711 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>82</v>
+      </c>
+      <c r="B136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>82</v>
+      </c>
+      <c r="B137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>72</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>65</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>38</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" t="s">
+        <v>46</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" t="s">
+        <v>100</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>31</v>
+      </c>
+      <c r="B152" t="s">
+        <v>64</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>31</v>
+      </c>
+      <c r="B153" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155" t="s">
+        <v>32</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" t="s">
+        <v>37</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157" t="s">
+        <v>76</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>78</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" t="s">
+        <v>113</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>47</v>
+      </c>
+      <c r="B163" t="s">
+        <v>90</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>47</v>
+      </c>
+      <c r="B164" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>47</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>47</v>
+      </c>
+      <c r="B166" t="s">
+        <v>56</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>47</v>
+      </c>
+      <c r="B167" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B168" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>47</v>
+      </c>
+      <c r="B169" t="s">
+        <v>91</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>47</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>47</v>
+      </c>
+      <c r="B172" t="s">
+        <v>52</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>33</v>
+      </c>
+      <c r="B173" t="s">
+        <v>42</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>33</v>
+      </c>
+      <c r="B174" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>33</v>
+      </c>
+      <c r="B175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>33</v>
+      </c>
+      <c r="B176" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" t="s">
+        <v>68</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>33</v>
+      </c>
+      <c r="B178" t="s">
+        <v>61</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>33</v>
+      </c>
+      <c r="B179" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
         <v>25</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>25</v>
+      </c>
+      <c r="B181" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>25</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>25</v>
+      </c>
+      <c r="B184" t="s">
+        <v>101</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>25</v>
+      </c>
+      <c r="B185" t="s">
+        <v>113</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>25</v>
+      </c>
+      <c r="B186" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>25</v>
+      </c>
+      <c r="B187" t="s">
+        <v>43</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>25</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>25</v>
+      </c>
+      <c r="B189" t="s">
+        <v>40</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>25</v>
+      </c>
+      <c r="B190" t="s">
+        <v>68</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>25</v>
+      </c>
+      <c r="B191" t="s">
+        <v>41</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>25</v>
+      </c>
+      <c r="B192" t="s">
+        <v>55</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+      <c r="B193" t="s">
+        <v>44</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>25</v>
+      </c>
+      <c r="B194" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>25</v>
+      </c>
+      <c r="B195" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>25</v>
+      </c>
+      <c r="B196" t="s">
         <v>19</v>
       </c>
-      <c r="C135">
-        <v>2</v>
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>25</v>
+      </c>
+      <c r="B197" t="s">
+        <v>80</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C135">
-    <sortCondition ref="A2:A135"/>
+  <sortState ref="A2:C197">
+    <sortCondition ref="A2:A197"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2210,13 +2978,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:C135"/>
+    <sheetView topLeftCell="A183" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C197" sqref="A1:C197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -2291,21 +3059,21 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2313,54 +3081,54 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2368,10 +3136,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2379,21 +3147,21 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2401,10 +3169,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2412,21 +3180,21 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2434,29 +3202,29 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -2467,29 +3235,29 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -2500,10 +3268,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2511,32 +3279,32 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2544,21 +3312,21 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2569,7 +3337,7 @@
         <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2577,10 +3345,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2588,13 +3356,13 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2602,7 +3370,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2610,10 +3378,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2621,54 +3389,54 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2676,10 +3444,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2687,10 +3455,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2698,32 +3466,32 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2734,73 +3502,73 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2808,10 +3576,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2819,10 +3587,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2830,10 +3598,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -2841,10 +3609,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2852,10 +3620,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2863,10 +3631,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2874,24 +3642,24 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2899,7 +3667,7 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2907,10 +3675,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2918,10 +3686,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2929,10 +3697,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2940,10 +3708,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2951,10 +3719,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2962,10 +3730,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2973,10 +3741,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2984,21 +3752,21 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3009,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3017,21 +3785,21 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3039,10 +3807,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3050,32 +3818,32 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3083,10 +3851,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3094,10 +3862,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3105,10 +3873,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3116,43 +3884,43 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3160,10 +3928,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3171,10 +3939,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3182,10 +3950,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3193,10 +3961,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -3204,10 +3972,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3218,18 +3986,18 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -3237,10 +4005,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -3248,21 +4016,21 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3270,21 +4038,21 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3292,10 +4060,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3303,10 +4071,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3314,43 +4082,43 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3358,10 +4126,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -3369,32 +4137,32 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3402,54 +4170,54 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -3457,10 +4225,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3468,10 +4236,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3482,7 +4250,7 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3490,10 +4258,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3501,10 +4269,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3512,21 +4280,21 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3534,10 +4302,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3545,10 +4313,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3556,10 +4324,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3567,10 +4335,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3578,10 +4346,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3589,32 +4357,32 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3622,21 +4390,21 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3644,21 +4412,21 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B131" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3666,10 +4434,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3677,10 +4445,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -3688,10 +4456,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -3702,15 +4470,697 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136" t="s">
+        <v>67</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" t="s">
+        <v>55</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>88</v>
+      </c>
+      <c r="B141" t="s">
+        <v>85</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>92</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" t="s">
+        <v>66</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>47</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>88</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>50</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" t="s">
+        <v>44</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>44</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>25</v>
+      </c>
+      <c r="B151" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>50</v>
+      </c>
+      <c r="B153" t="s">
+        <v>93</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>60</v>
+      </c>
+      <c r="B154" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s">
+        <v>37</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159" t="s">
+        <v>37</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160" t="s">
+        <v>76</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>60</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>25</v>
+      </c>
+      <c r="B163" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>47</v>
+      </c>
+      <c r="B164" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" t="s">
+        <v>102</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" t="s">
+        <v>53</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" t="s">
+        <v>103</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" t="s">
+        <v>99</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B172" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
+        <v>54</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>45</v>
+      </c>
+      <c r="B177" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>50</v>
+      </c>
+      <c r="B178" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>15</v>
+      </c>
+      <c r="B179" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>33</v>
+      </c>
+      <c r="B181" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B183" t="s">
+        <v>71</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>88</v>
+      </c>
+      <c r="B184" t="s">
+        <v>86</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" t="s">
+        <v>52</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" t="s">
+        <v>52</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" t="s">
+        <v>52</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>47</v>
+      </c>
+      <c r="B188" t="s">
+        <v>52</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" t="s">
+        <v>52</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>25</v>
+      </c>
+      <c r="B191" t="s">
+        <v>80</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>38</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
         <v>29</v>
       </c>
-      <c r="C135">
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" t="s">
+        <v>96</v>
+      </c>
+      <c r="C197">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C135">
-    <sortCondition ref="B2:B135"/>
+  <sortState ref="A2:C197">
+    <sortCondition ref="B2:B197"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3720,4 +5170,118 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>